--- a/search/New Microsoft Excel Worksheet (2).xlsx
+++ b/search/New Microsoft Excel Worksheet (2).xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$100</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="303">
   <si>
     <t>Date received</t>
   </si>
@@ -1156,6 +1159,9 @@
   <si>
     <t xml:space="preserve">On XXXX XXXX, 2014, I made a payment for {$100.00} to Capital One Credit Card. After completing my payment I obtained a confirmation number XXXX. A XXXX later I get a late fee and higher minimum payment in my Capital One credit card statement. I contacted Capital One and spoke with representative ID XXXX and he apologized in behalf of Capital one and removed the late fee and fixed the issue of the bill statement. He also stated that this issue was not going to be reported in the credit bureau as it was a clerical error done by Capital One. However, I pulled my credit reports and Capital One has entered a late payment of XXXX days in all of the credit bureaus. I have called and I have sent XXXX letters to them so they correct the wrongful entry in the credit reports, but they continue to respond that I was late and that I did not make the payment. I have the confirmation number and the ID of the representative that I spoke with a month after. This is totally unfair practice and bad faith it should be corrected. 
 </t>
+  </si>
+  <si>
+    <t>AAM</t>
   </si>
 </sst>
 </file>
@@ -1207,6 +1213,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1254,7 +1263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,7 +1298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1498,15 +1507,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R100"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1519,50 +1550,50 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>42087</v>
       </c>
@@ -1572,41 +1603,41 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
       <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1">
         <v>42093</v>
       </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2">
         <v>1297939</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>42086</v>
       </c>
@@ -1616,41 +1647,41 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
       <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1">
         <v>42086</v>
       </c>
-      <c r="O3" t="s">
-        <v>26</v>
-      </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3">
         <v>1296693</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>42086</v>
       </c>
@@ -1660,41 +1691,41 @@
       <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
       <c r="M4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="1">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1">
         <v>42086</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
       <c r="Q4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4">
         <v>1295056</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>42086</v>
       </c>
@@ -1704,41 +1735,41 @@
       <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>32</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>41</v>
       </c>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
       <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="1">
+        <v>24</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1">
         <v>42086</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
       <c r="Q5" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5">
         <v>1296880</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42086</v>
       </c>
@@ -1748,44 +1779,44 @@
       <c r="D6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>46</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>47</v>
       </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
       <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="1">
+        <v>24</v>
+      </c>
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1">
         <v>42086</v>
       </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6">
         <v>1296890</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42087</v>
       </c>
@@ -1795,44 +1826,44 @@
       <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>52</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>53</v>
       </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
       <c r="M7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="1">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1">
         <v>42087</v>
       </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q7" t="s">
         <v>27</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7">
         <v>1299216</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>42087</v>
       </c>
@@ -1842,44 +1873,44 @@
       <c r="D8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>57</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>58</v>
       </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
       <c r="M8" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="1">
+        <v>24</v>
+      </c>
+      <c r="N8" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1">
         <v>42087</v>
       </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
       <c r="P8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
         <v>27</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8">
         <v>1297327</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>42082</v>
       </c>
@@ -1889,44 +1920,44 @@
       <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>51</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>61</v>
       </c>
-      <c r="L9" t="s">
-        <v>24</v>
-      </c>
       <c r="M9" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="1">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1">
         <v>42082</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>42</v>
       </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9">
         <v>1290514</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>42087</v>
       </c>
@@ -1936,41 +1967,41 @@
       <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>66</v>
       </c>
-      <c r="L10" t="s">
-        <v>24</v>
-      </c>
       <c r="M10" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="1">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1">
         <v>42087</v>
       </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
       <c r="P10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
-      </c>
-      <c r="R10">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>28</v>
+      </c>
+      <c r="S10">
         <v>1298124</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>42087</v>
       </c>
@@ -1980,41 +2011,41 @@
       <c r="D11" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>21</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>36</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>37</v>
       </c>
-      <c r="L11" t="s">
-        <v>24</v>
-      </c>
       <c r="M11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N11" s="1">
+        <v>24</v>
+      </c>
+      <c r="N11" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1">
         <v>42087</v>
       </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
       <c r="P11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>28</v>
+      </c>
+      <c r="S11">
         <v>1298133</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>42090</v>
       </c>
@@ -2024,44 +2055,44 @@
       <c r="D12" t="s">
         <v>69</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>72</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>73</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" t="s">
-        <v>24</v>
-      </c>
       <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" s="1">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1">
         <v>42090</v>
       </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
       <c r="P12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R12">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12">
         <v>1304678</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>42087</v>
       </c>
@@ -2071,44 +2102,44 @@
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>50</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>77</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>79</v>
       </c>
-      <c r="L13" t="s">
-        <v>24</v>
-      </c>
       <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" s="1">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1">
         <v>42087</v>
       </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
       <c r="P13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
         <v>27</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13">
         <v>1298273</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>42082</v>
       </c>
@@ -2118,41 +2149,41 @@
       <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>82</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>57</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
-        <v>24</v>
-      </c>
       <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" s="1">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1">
         <v>42088</v>
       </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
       <c r="P14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R14">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>28</v>
+      </c>
+      <c r="S14">
         <v>1290975</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42082</v>
       </c>
@@ -2162,44 +2193,47 @@
       <c r="D15" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>302</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>50</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>57</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="L15" t="s">
-        <v>24</v>
-      </c>
       <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" s="1">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1">
         <v>42082</v>
       </c>
-      <c r="O15" t="s">
-        <v>26</v>
-      </c>
       <c r="P15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q15" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15">
+        <v>27</v>
+      </c>
+      <c r="R15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S15">
         <v>1291085</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>42090</v>
       </c>
@@ -2209,41 +2243,41 @@
       <c r="D16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>82</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>88</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>89</v>
       </c>
-      <c r="L16" t="s">
-        <v>24</v>
-      </c>
       <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" s="1">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1">
         <v>42090</v>
       </c>
-      <c r="O16" t="s">
-        <v>26</v>
-      </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="s">
-        <v>28</v>
-      </c>
-      <c r="R16">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16">
         <v>1305128</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>42087</v>
       </c>
@@ -2253,41 +2287,41 @@
       <c r="D17" t="s">
         <v>75</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>91</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>57</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>92</v>
       </c>
-      <c r="L17" t="s">
-        <v>24</v>
-      </c>
       <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" s="1">
+        <v>24</v>
+      </c>
+      <c r="N17" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1">
         <v>42088</v>
       </c>
-      <c r="O17" t="s">
-        <v>26</v>
-      </c>
       <c r="P17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q17" t="s">
         <v>27</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="s">
+        <v>27</v>
+      </c>
+      <c r="S17">
         <v>1297530</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>42090</v>
       </c>
@@ -2297,44 +2331,44 @@
       <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>51</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>65</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>94</v>
       </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
       <c r="M18" t="s">
-        <v>25</v>
-      </c>
-      <c r="N18" s="1">
+        <v>24</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="1">
         <v>42090</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>42</v>
       </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
       <c r="Q18" t="s">
         <v>27</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S18">
         <v>1303905</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>42082</v>
       </c>
@@ -2344,44 +2378,44 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>71</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>96</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>97</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" t="s">
-        <v>24</v>
-      </c>
       <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" s="1">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1">
         <v>42082</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>38</v>
       </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
       <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>28</v>
+      </c>
+      <c r="S19">
         <v>1291408</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42087</v>
       </c>
@@ -2391,44 +2425,44 @@
       <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>51</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>100</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>101</v>
       </c>
-      <c r="L20" t="s">
-        <v>24</v>
-      </c>
       <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="1">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1">
         <v>42087</v>
       </c>
-      <c r="O20" t="s">
-        <v>26</v>
-      </c>
       <c r="P20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q20" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>28</v>
+      </c>
+      <c r="S20">
         <v>1298899</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>42092</v>
       </c>
@@ -2438,41 +2472,41 @@
       <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>91</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>104</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>105</v>
       </c>
-      <c r="L21" t="s">
-        <v>24</v>
-      </c>
       <c r="M21" t="s">
-        <v>25</v>
-      </c>
-      <c r="N21" s="1">
+        <v>24</v>
+      </c>
+      <c r="N21" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="1">
         <v>42096</v>
       </c>
-      <c r="O21" t="s">
-        <v>26</v>
-      </c>
       <c r="P21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q21" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21">
+        <v>27</v>
+      </c>
+      <c r="R21" t="s">
+        <v>28</v>
+      </c>
+      <c r="S21">
         <v>1306376</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>42091</v>
       </c>
@@ -2482,41 +2516,41 @@
       <c r="D22" t="s">
         <v>106</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>21</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>73</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>108</v>
       </c>
-      <c r="L22" t="s">
-        <v>24</v>
-      </c>
       <c r="M22" t="s">
-        <v>25</v>
-      </c>
-      <c r="N22" s="1">
+        <v>24</v>
+      </c>
+      <c r="N22" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1">
         <v>42091</v>
       </c>
-      <c r="O22" t="s">
-        <v>26</v>
-      </c>
       <c r="P22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22">
+        <v>27</v>
+      </c>
+      <c r="R22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22">
         <v>1305792</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>42091</v>
       </c>
@@ -2526,44 +2560,44 @@
       <c r="D23" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>110</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>111</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>112</v>
       </c>
-      <c r="L23" t="s">
-        <v>24</v>
-      </c>
       <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" s="1">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="1">
         <v>42095</v>
       </c>
-      <c r="O23" t="s">
-        <v>26</v>
-      </c>
       <c r="P23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q23" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23">
+        <v>27</v>
+      </c>
+      <c r="R23" t="s">
+        <v>28</v>
+      </c>
+      <c r="S23">
         <v>1306078</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>42092</v>
       </c>
@@ -2573,41 +2607,41 @@
       <c r="D24" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>64</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>57</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>115</v>
       </c>
-      <c r="L24" t="s">
-        <v>24</v>
-      </c>
       <c r="M24" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="1">
+        <v>24</v>
+      </c>
+      <c r="N24" t="s">
+        <v>25</v>
+      </c>
+      <c r="O24" s="1">
         <v>42096</v>
       </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
       <c r="P24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24" t="s">
         <v>27</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24">
         <v>1306156</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>42092</v>
       </c>
@@ -2617,41 +2651,44 @@
       <c r="D25" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>117</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>118</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>119</v>
       </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
       <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="1">
+        <v>24</v>
+      </c>
+      <c r="N25" t="s">
+        <v>25</v>
+      </c>
+      <c r="O25" s="1">
         <v>42092</v>
       </c>
-      <c r="O25" t="s">
-        <v>26</v>
-      </c>
       <c r="P25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q25" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25">
+        <v>27</v>
+      </c>
+      <c r="R25" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25">
         <v>1306228</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>42092</v>
       </c>
@@ -2661,44 +2698,44 @@
       <c r="D26" t="s">
         <v>106</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>31</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>121</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>122</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>47</v>
       </c>
-      <c r="L26" t="s">
-        <v>24</v>
-      </c>
       <c r="M26" t="s">
-        <v>25</v>
-      </c>
-      <c r="N26" s="1">
+        <v>24</v>
+      </c>
+      <c r="N26" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="1">
         <v>42092</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>42</v>
       </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
       <c r="Q26" t="s">
-        <v>28</v>
-      </c>
-      <c r="R26">
+        <v>27</v>
+      </c>
+      <c r="R26" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26">
         <v>1306182</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>42092</v>
       </c>
@@ -2708,47 +2745,47 @@
       <c r="D27" t="s">
         <v>75</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>71</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>124</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>36</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>125</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>126</v>
       </c>
-      <c r="L27" t="s">
-        <v>24</v>
-      </c>
       <c r="M27" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="1">
+        <v>24</v>
+      </c>
+      <c r="N27" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1">
         <v>42092</v>
       </c>
-      <c r="O27" t="s">
-        <v>26</v>
-      </c>
       <c r="P27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q27" t="s">
-        <v>28</v>
-      </c>
-      <c r="R27">
+        <v>27</v>
+      </c>
+      <c r="R27" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27">
         <v>1306342</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>42093</v>
       </c>
@@ -2758,44 +2795,44 @@
       <c r="D28" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>50</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>51</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>128</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>129</v>
       </c>
-      <c r="L28" t="s">
-        <v>24</v>
-      </c>
       <c r="M28" t="s">
-        <v>25</v>
-      </c>
-      <c r="N28" s="1">
+        <v>24</v>
+      </c>
+      <c r="N28" t="s">
+        <v>25</v>
+      </c>
+      <c r="O28" s="1">
         <v>42096</v>
       </c>
-      <c r="O28" t="s">
-        <v>26</v>
-      </c>
       <c r="P28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q28" t="s">
-        <v>28</v>
-      </c>
-      <c r="R28">
+        <v>27</v>
+      </c>
+      <c r="R28" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28">
         <v>1306690</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>42093</v>
       </c>
@@ -2805,41 +2842,41 @@
       <c r="D29" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>131</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>132</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>133</v>
       </c>
-      <c r="L29" t="s">
-        <v>24</v>
-      </c>
       <c r="M29" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="1">
+        <v>24</v>
+      </c>
+      <c r="N29" t="s">
+        <v>25</v>
+      </c>
+      <c r="O29" s="1">
         <v>42093</v>
       </c>
-      <c r="O29" t="s">
-        <v>26</v>
-      </c>
       <c r="P29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q29" t="s">
-        <v>28</v>
-      </c>
-      <c r="R29">
+        <v>27</v>
+      </c>
+      <c r="R29" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29">
         <v>1306697</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>42093</v>
       </c>
@@ -2849,44 +2886,44 @@
       <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>50</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>51</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>65</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>135</v>
       </c>
-      <c r="L30" t="s">
-        <v>24</v>
-      </c>
       <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" s="1">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>25</v>
+      </c>
+      <c r="O30" s="1">
         <v>42093</v>
       </c>
-      <c r="O30" t="s">
-        <v>26</v>
-      </c>
       <c r="P30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q30" t="s">
-        <v>28</v>
-      </c>
-      <c r="R30">
+        <v>27</v>
+      </c>
+      <c r="R30" t="s">
+        <v>28</v>
+      </c>
+      <c r="S30">
         <v>1306904</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>42087</v>
       </c>
@@ -2896,44 +2933,44 @@
       <c r="D31" t="s">
         <v>54</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>56</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>137</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>138</v>
       </c>
-      <c r="L31" t="s">
-        <v>24</v>
-      </c>
       <c r="M31" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="1">
+        <v>24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>25</v>
+      </c>
+      <c r="O31" s="1">
         <v>42087</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>42</v>
       </c>
-      <c r="P31" t="s">
-        <v>27</v>
-      </c>
       <c r="Q31" t="s">
-        <v>28</v>
-      </c>
-      <c r="R31">
+        <v>27</v>
+      </c>
+      <c r="R31" t="s">
+        <v>28</v>
+      </c>
+      <c r="S31">
         <v>1297473</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>42088</v>
       </c>
@@ -2943,44 +2980,44 @@
       <c r="D32" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>50</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>56</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>140</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>141</v>
       </c>
-      <c r="L32" t="s">
-        <v>24</v>
-      </c>
       <c r="M32" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="1">
+        <v>24</v>
+      </c>
+      <c r="N32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="1">
         <v>42093</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>42</v>
       </c>
-      <c r="P32" t="s">
-        <v>27</v>
-      </c>
       <c r="Q32" t="s">
-        <v>28</v>
-      </c>
-      <c r="R32">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>28</v>
+      </c>
+      <c r="S32">
         <v>1299695</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>42088</v>
       </c>
@@ -2990,41 +3027,41 @@
       <c r="D33" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>64</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>132</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>143</v>
       </c>
-      <c r="L33" t="s">
-        <v>24</v>
-      </c>
       <c r="M33" t="s">
-        <v>25</v>
-      </c>
-      <c r="N33" s="1">
+        <v>24</v>
+      </c>
+      <c r="N33" t="s">
+        <v>25</v>
+      </c>
+      <c r="O33" s="1">
         <v>42088</v>
       </c>
-      <c r="O33" t="s">
-        <v>26</v>
-      </c>
       <c r="P33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q33" t="s">
-        <v>28</v>
-      </c>
-      <c r="R33">
+        <v>27</v>
+      </c>
+      <c r="R33" t="s">
+        <v>28</v>
+      </c>
+      <c r="S33">
         <v>1299831</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>42088</v>
       </c>
@@ -3034,44 +3071,44 @@
       <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>50</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>77</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>65</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>66</v>
       </c>
-      <c r="L34" t="s">
-        <v>24</v>
-      </c>
       <c r="M34" t="s">
-        <v>25</v>
-      </c>
-      <c r="N34" s="1">
+        <v>24</v>
+      </c>
+      <c r="N34" t="s">
+        <v>25</v>
+      </c>
+      <c r="O34" s="1">
         <v>42088</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>42</v>
       </c>
-      <c r="P34" t="s">
-        <v>27</v>
-      </c>
       <c r="Q34" t="s">
-        <v>28</v>
-      </c>
-      <c r="R34">
+        <v>27</v>
+      </c>
+      <c r="R34" t="s">
+        <v>28</v>
+      </c>
+      <c r="S34">
         <v>1299920</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>42097</v>
       </c>
@@ -3081,44 +3118,44 @@
       <c r="D35" t="s">
         <v>75</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>50</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>51</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>146</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>147</v>
       </c>
-      <c r="L35" t="s">
-        <v>24</v>
-      </c>
       <c r="M35" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="1">
+        <v>24</v>
+      </c>
+      <c r="N35" t="s">
+        <v>25</v>
+      </c>
+      <c r="O35" s="1">
         <v>42101</v>
       </c>
-      <c r="O35" t="s">
-        <v>26</v>
-      </c>
       <c r="P35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q35" t="s">
-        <v>28</v>
-      </c>
-      <c r="R35">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>28</v>
+      </c>
+      <c r="S35">
         <v>1314671</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>42097</v>
       </c>
@@ -3128,44 +3165,44 @@
       <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>149</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>65</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>150</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>126</v>
       </c>
-      <c r="L36" t="s">
-        <v>24</v>
-      </c>
       <c r="M36" t="s">
-        <v>25</v>
-      </c>
-      <c r="N36" s="1">
+        <v>24</v>
+      </c>
+      <c r="N36" t="s">
+        <v>25</v>
+      </c>
+      <c r="O36" s="1">
         <v>42101</v>
       </c>
-      <c r="O36" t="s">
-        <v>26</v>
-      </c>
       <c r="P36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q36" t="s">
-        <v>28</v>
-      </c>
-      <c r="R36">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>28</v>
+      </c>
+      <c r="S36">
         <v>1314796</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>42097</v>
       </c>
@@ -3175,44 +3212,44 @@
       <c r="D37" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>50</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>77</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>73</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>152</v>
       </c>
-      <c r="L37" t="s">
-        <v>24</v>
-      </c>
       <c r="M37" t="s">
-        <v>25</v>
-      </c>
-      <c r="N37" s="1">
+        <v>24</v>
+      </c>
+      <c r="N37" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="1">
         <v>42097</v>
       </c>
-      <c r="O37" t="s">
-        <v>26</v>
-      </c>
       <c r="P37" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q37" t="s">
-        <v>28</v>
-      </c>
-      <c r="R37">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>28</v>
+      </c>
+      <c r="S37">
         <v>1314974</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>42093</v>
       </c>
@@ -3222,44 +3259,44 @@
       <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>50</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>51</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>57</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>154</v>
       </c>
-      <c r="L38" t="s">
-        <v>24</v>
-      </c>
       <c r="M38" t="s">
-        <v>25</v>
-      </c>
-      <c r="N38" s="1">
+        <v>24</v>
+      </c>
+      <c r="N38" t="s">
+        <v>25</v>
+      </c>
+      <c r="O38" s="1">
         <v>42096</v>
       </c>
-      <c r="O38" t="s">
-        <v>26</v>
-      </c>
       <c r="P38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q38" t="s">
-        <v>28</v>
-      </c>
-      <c r="R38">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>28</v>
+      </c>
+      <c r="S38">
         <v>1307080</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>42097</v>
       </c>
@@ -3269,41 +3306,41 @@
       <c r="D39" t="s">
         <v>62</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>64</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>146</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>156</v>
       </c>
-      <c r="L39" t="s">
-        <v>24</v>
-      </c>
       <c r="M39" t="s">
-        <v>25</v>
-      </c>
-      <c r="N39" s="1">
+        <v>24</v>
+      </c>
+      <c r="N39" t="s">
+        <v>25</v>
+      </c>
+      <c r="O39" s="1">
         <v>42097</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>42</v>
       </c>
-      <c r="P39" t="s">
-        <v>27</v>
-      </c>
       <c r="Q39" t="s">
-        <v>28</v>
-      </c>
-      <c r="R39">
+        <v>27</v>
+      </c>
+      <c r="R39" t="s">
+        <v>28</v>
+      </c>
+      <c r="S39">
         <v>1315070</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42083</v>
       </c>
@@ -3313,41 +3350,41 @@
       <c r="D40" t="s">
         <v>75</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>111</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>158</v>
       </c>
-      <c r="L40" t="s">
-        <v>24</v>
-      </c>
       <c r="M40" t="s">
-        <v>25</v>
-      </c>
-      <c r="N40" s="1">
+        <v>24</v>
+      </c>
+      <c r="N40" t="s">
+        <v>25</v>
+      </c>
+      <c r="O40" s="1">
         <v>42083</v>
       </c>
-      <c r="O40" t="s">
-        <v>26</v>
-      </c>
       <c r="P40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q40" t="s">
-        <v>28</v>
-      </c>
-      <c r="R40">
+        <v>27</v>
+      </c>
+      <c r="R40" t="s">
+        <v>28</v>
+      </c>
+      <c r="S40">
         <v>1292579</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>42093</v>
       </c>
@@ -3357,44 +3394,44 @@
       <c r="D41" t="s">
         <v>54</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>50</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>56</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>160</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>161</v>
       </c>
-      <c r="L41" t="s">
-        <v>24</v>
-      </c>
       <c r="M41" t="s">
-        <v>25</v>
-      </c>
-      <c r="N41" s="1">
+        <v>24</v>
+      </c>
+      <c r="N41" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="1">
         <v>42093</v>
       </c>
-      <c r="O41" t="s">
-        <v>26</v>
-      </c>
       <c r="P41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q41" t="s">
         <v>27</v>
       </c>
-      <c r="R41">
+      <c r="R41" t="s">
+        <v>27</v>
+      </c>
+      <c r="S41">
         <v>1307150</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42093</v>
       </c>
@@ -3404,41 +3441,41 @@
       <c r="D42" t="s">
         <v>106</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>35</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>88</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>163</v>
       </c>
-      <c r="L42" t="s">
-        <v>24</v>
-      </c>
       <c r="M42" t="s">
-        <v>25</v>
-      </c>
-      <c r="N42" s="1">
+        <v>24</v>
+      </c>
+      <c r="N42" t="s">
+        <v>25</v>
+      </c>
+      <c r="O42" s="1">
         <v>42093</v>
       </c>
-      <c r="O42" t="s">
-        <v>26</v>
-      </c>
       <c r="P42" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q42" t="s">
         <v>27</v>
       </c>
-      <c r="R42">
+      <c r="R42" t="s">
+        <v>27</v>
+      </c>
+      <c r="S42">
         <v>1307175</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42097</v>
       </c>
@@ -3448,41 +3485,41 @@
       <c r="D43" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>64</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>88</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>165</v>
       </c>
-      <c r="L43" t="s">
-        <v>24</v>
-      </c>
       <c r="M43" t="s">
-        <v>25</v>
-      </c>
-      <c r="N43" s="1">
+        <v>24</v>
+      </c>
+      <c r="N43" t="s">
+        <v>25</v>
+      </c>
+      <c r="O43" s="1">
         <v>42097</v>
       </c>
-      <c r="O43" t="s">
-        <v>26</v>
-      </c>
       <c r="P43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q43" t="s">
-        <v>28</v>
-      </c>
-      <c r="R43">
+        <v>27</v>
+      </c>
+      <c r="R43" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43">
         <v>1315203</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42097</v>
       </c>
@@ -3492,44 +3529,44 @@
       <c r="D44" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>64</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>146</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>167</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>168</v>
       </c>
-      <c r="L44" t="s">
-        <v>24</v>
-      </c>
       <c r="M44" t="s">
-        <v>25</v>
-      </c>
-      <c r="N44" s="1">
+        <v>24</v>
+      </c>
+      <c r="N44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O44" s="1">
         <v>42097</v>
       </c>
-      <c r="O44" t="s">
-        <v>26</v>
-      </c>
       <c r="P44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q44" t="s">
         <v>27</v>
       </c>
-      <c r="R44">
+      <c r="R44" t="s">
+        <v>27</v>
+      </c>
+      <c r="S44">
         <v>1315214</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>42083</v>
       </c>
@@ -3539,41 +3576,41 @@
       <c r="D45" t="s">
         <v>62</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>51</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>170</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>171</v>
       </c>
-      <c r="L45" t="s">
-        <v>24</v>
-      </c>
       <c r="M45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N45" s="1">
+        <v>24</v>
+      </c>
+      <c r="N45" t="s">
+        <v>25</v>
+      </c>
+      <c r="O45" s="1">
         <v>42083</v>
       </c>
-      <c r="O45" t="s">
+      <c r="P45" t="s">
         <v>42</v>
       </c>
-      <c r="P45" t="s">
-        <v>27</v>
-      </c>
       <c r="Q45" t="s">
         <v>27</v>
       </c>
-      <c r="R45">
+      <c r="R45" t="s">
+        <v>27</v>
+      </c>
+      <c r="S45">
         <v>1293250</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>42097</v>
       </c>
@@ -3583,44 +3620,44 @@
       <c r="D46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>50</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>77</v>
       </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>65</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>173</v>
       </c>
-      <c r="L46" t="s">
-        <v>24</v>
-      </c>
       <c r="M46" t="s">
-        <v>25</v>
-      </c>
-      <c r="N46" s="1">
+        <v>24</v>
+      </c>
+      <c r="N46" t="s">
+        <v>25</v>
+      </c>
+      <c r="O46" s="1">
         <v>42097</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>42</v>
       </c>
-      <c r="P46" t="s">
-        <v>27</v>
-      </c>
       <c r="Q46" t="s">
         <v>27</v>
       </c>
-      <c r="R46">
+      <c r="R46" t="s">
+        <v>27</v>
+      </c>
+      <c r="S46">
         <v>1315361</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="300" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>42103</v>
       </c>
@@ -3630,41 +3667,41 @@
       <c r="D47" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>64</v>
       </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>52</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>53</v>
       </c>
-      <c r="L47" t="s">
-        <v>24</v>
-      </c>
       <c r="M47" t="s">
-        <v>25</v>
-      </c>
-      <c r="N47" s="1">
+        <v>24</v>
+      </c>
+      <c r="N47" t="s">
+        <v>25</v>
+      </c>
+      <c r="O47" s="1">
         <v>42103</v>
       </c>
-      <c r="O47" t="s">
-        <v>26</v>
-      </c>
       <c r="P47" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q47" t="s">
-        <v>28</v>
-      </c>
-      <c r="R47">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47">
         <v>1323023</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>42094</v>
       </c>
@@ -3674,44 +3711,44 @@
       <c r="D48" t="s">
         <v>175</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>50</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>51</v>
       </c>
-      <c r="I48" t="s">
+      <c r="J48" t="s">
         <v>52</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>53</v>
       </c>
-      <c r="L48" t="s">
-        <v>24</v>
-      </c>
       <c r="M48" t="s">
-        <v>25</v>
-      </c>
-      <c r="N48" s="1">
+        <v>24</v>
+      </c>
+      <c r="N48" t="s">
+        <v>25</v>
+      </c>
+      <c r="O48" s="1">
         <v>42094</v>
       </c>
-      <c r="O48" t="s">
-        <v>26</v>
-      </c>
       <c r="P48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q48" t="s">
-        <v>28</v>
-      </c>
-      <c r="R48">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>28</v>
+      </c>
+      <c r="S48">
         <v>1308065</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>42094</v>
       </c>
@@ -3721,44 +3758,44 @@
       <c r="D49" t="s">
         <v>113</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>91</v>
       </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>178</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>179</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>126</v>
       </c>
-      <c r="L49" t="s">
-        <v>24</v>
-      </c>
       <c r="M49" t="s">
-        <v>25</v>
-      </c>
-      <c r="N49" s="1">
+        <v>24</v>
+      </c>
+      <c r="N49" t="s">
+        <v>25</v>
+      </c>
+      <c r="O49" s="1">
         <v>42094</v>
       </c>
-      <c r="O49" t="s">
-        <v>26</v>
-      </c>
       <c r="P49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q49" t="s">
         <v>27</v>
       </c>
-      <c r="R49">
+      <c r="R49" t="s">
+        <v>27</v>
+      </c>
+      <c r="S49">
         <v>1308091</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>42083</v>
       </c>
@@ -3768,41 +3805,41 @@
       <c r="D50" t="s">
         <v>48</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>21</v>
       </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>60</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>181</v>
       </c>
-      <c r="L50" t="s">
-        <v>24</v>
-      </c>
       <c r="M50" t="s">
-        <v>25</v>
-      </c>
-      <c r="N50" s="1">
+        <v>24</v>
+      </c>
+      <c r="N50" t="s">
+        <v>25</v>
+      </c>
+      <c r="O50" s="1">
         <v>42083</v>
       </c>
-      <c r="O50" t="s">
-        <v>26</v>
-      </c>
       <c r="P50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q50" t="s">
-        <v>28</v>
-      </c>
-      <c r="R50">
+        <v>27</v>
+      </c>
+      <c r="R50" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50">
         <v>1292601</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="165" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>42097</v>
       </c>
@@ -3812,44 +3849,47 @@
       <c r="D51" t="s">
         <v>84</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" t="s">
+        <v>302</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>50</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>183</v>
       </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>184</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>185</v>
       </c>
-      <c r="L51" t="s">
-        <v>24</v>
-      </c>
       <c r="M51" t="s">
-        <v>25</v>
-      </c>
-      <c r="N51" s="1">
+        <v>24</v>
+      </c>
+      <c r="N51" t="s">
+        <v>25</v>
+      </c>
+      <c r="O51" s="1">
         <v>42097</v>
       </c>
-      <c r="O51" t="s">
+      <c r="P51" t="s">
         <v>38</v>
       </c>
-      <c r="P51" t="s">
-        <v>27</v>
-      </c>
       <c r="Q51" t="s">
         <v>27</v>
       </c>
-      <c r="R51">
+      <c r="R51" t="s">
+        <v>27</v>
+      </c>
+      <c r="S51">
         <v>1316343</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>42103</v>
       </c>
@@ -3859,44 +3899,44 @@
       <c r="D52" t="s">
         <v>186</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>71</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>72</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>65</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>188</v>
       </c>
-      <c r="L52" t="s">
-        <v>24</v>
-      </c>
       <c r="M52" t="s">
-        <v>25</v>
-      </c>
-      <c r="N52" s="1">
+        <v>24</v>
+      </c>
+      <c r="N52" t="s">
+        <v>25</v>
+      </c>
+      <c r="O52" s="1">
         <v>42103</v>
       </c>
-      <c r="O52" t="s">
-        <v>26</v>
-      </c>
       <c r="P52" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q52" t="s">
-        <v>28</v>
-      </c>
-      <c r="R52">
+        <v>27</v>
+      </c>
+      <c r="R52" t="s">
+        <v>28</v>
+      </c>
+      <c r="S52">
         <v>1323140</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="375" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>42097</v>
       </c>
@@ -3906,44 +3946,44 @@
       <c r="D53" t="s">
         <v>75</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>50</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>183</v>
       </c>
-      <c r="I53" t="s">
+      <c r="J53" t="s">
         <v>190</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>191</v>
       </c>
-      <c r="L53" t="s">
-        <v>24</v>
-      </c>
       <c r="M53" t="s">
-        <v>25</v>
-      </c>
-      <c r="N53" s="1">
+        <v>24</v>
+      </c>
+      <c r="N53" t="s">
+        <v>25</v>
+      </c>
+      <c r="O53" s="1">
         <v>42097</v>
       </c>
-      <c r="O53" t="s">
-        <v>26</v>
-      </c>
       <c r="P53" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q53" t="s">
-        <v>28</v>
-      </c>
-      <c r="R53">
+        <v>27</v>
+      </c>
+      <c r="R53" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53">
         <v>1315829</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>42083</v>
       </c>
@@ -3953,44 +3993,44 @@
       <c r="D54" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>50</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>193</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>57</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>194</v>
       </c>
-      <c r="L54" t="s">
-        <v>24</v>
-      </c>
       <c r="M54" t="s">
-        <v>25</v>
-      </c>
-      <c r="N54" s="1">
+        <v>24</v>
+      </c>
+      <c r="N54" t="s">
+        <v>25</v>
+      </c>
+      <c r="O54" s="1">
         <v>42089</v>
       </c>
-      <c r="O54" t="s">
+      <c r="P54" t="s">
         <v>42</v>
       </c>
-      <c r="P54" t="s">
-        <v>27</v>
-      </c>
       <c r="Q54" t="s">
-        <v>28</v>
-      </c>
-      <c r="R54">
+        <v>27</v>
+      </c>
+      <c r="R54" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54">
         <v>1293783</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>42088</v>
       </c>
@@ -4000,41 +4040,41 @@
       <c r="D55" t="s">
         <v>195</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>21</v>
       </c>
-      <c r="I55" t="s">
+      <c r="J55" t="s">
         <v>197</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>198</v>
       </c>
-      <c r="L55" t="s">
-        <v>24</v>
-      </c>
       <c r="M55" t="s">
-        <v>25</v>
-      </c>
-      <c r="N55" s="1">
+        <v>24</v>
+      </c>
+      <c r="N55" t="s">
+        <v>25</v>
+      </c>
+      <c r="O55" s="1">
         <v>42088</v>
       </c>
-      <c r="O55" t="s">
-        <v>26</v>
-      </c>
       <c r="P55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q55" t="s">
-        <v>28</v>
-      </c>
-      <c r="R55">
+        <v>27</v>
+      </c>
+      <c r="R55" t="s">
+        <v>28</v>
+      </c>
+      <c r="S55">
         <v>1301057</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>42098</v>
       </c>
@@ -4044,44 +4084,44 @@
       <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>50</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>77</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>197</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>200</v>
       </c>
-      <c r="L56" t="s">
-        <v>24</v>
-      </c>
       <c r="M56" t="s">
-        <v>25</v>
-      </c>
-      <c r="N56" s="1">
+        <v>24</v>
+      </c>
+      <c r="N56" t="s">
+        <v>25</v>
+      </c>
+      <c r="O56" s="1">
         <v>42098</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>42</v>
       </c>
-      <c r="P56" t="s">
-        <v>27</v>
-      </c>
       <c r="Q56" t="s">
-        <v>28</v>
-      </c>
-      <c r="R56">
+        <v>27</v>
+      </c>
+      <c r="R56" t="s">
+        <v>28</v>
+      </c>
+      <c r="S56">
         <v>1315915</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>42098</v>
       </c>
@@ -4091,44 +4131,44 @@
       <c r="D57" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>50</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>183</v>
       </c>
-      <c r="I57" t="s">
+      <c r="J57" t="s">
         <v>190</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>202</v>
       </c>
-      <c r="L57" t="s">
-        <v>24</v>
-      </c>
       <c r="M57" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" s="1">
+        <v>24</v>
+      </c>
+      <c r="N57" t="s">
+        <v>25</v>
+      </c>
+      <c r="O57" s="1">
         <v>42098</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P57" t="s">
         <v>38</v>
       </c>
-      <c r="P57" t="s">
-        <v>27</v>
-      </c>
       <c r="Q57" t="s">
-        <v>28</v>
-      </c>
-      <c r="R57">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>28</v>
+      </c>
+      <c r="S57">
         <v>1314421</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>42094</v>
       </c>
@@ -4138,44 +4178,47 @@
       <c r="D58" t="s">
         <v>84</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" t="s">
+        <v>302</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>50</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>51</v>
       </c>
-      <c r="I58" t="s">
+      <c r="J58" t="s">
         <v>132</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>204</v>
       </c>
-      <c r="L58" t="s">
-        <v>24</v>
-      </c>
       <c r="M58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" s="1">
+        <v>24</v>
+      </c>
+      <c r="N58" t="s">
+        <v>25</v>
+      </c>
+      <c r="O58" s="1">
         <v>42094</v>
       </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>42</v>
       </c>
-      <c r="P58" t="s">
-        <v>27</v>
-      </c>
       <c r="Q58" t="s">
-        <v>28</v>
-      </c>
-      <c r="R58">
+        <v>27</v>
+      </c>
+      <c r="R58" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58">
         <v>1308363</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="270" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>42094</v>
       </c>
@@ -4185,44 +4228,47 @@
       <c r="D59" t="s">
         <v>84</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>117</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>32</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>206</v>
       </c>
-      <c r="K59" t="s">
+      <c r="L59" t="s">
         <v>47</v>
       </c>
-      <c r="L59" t="s">
-        <v>24</v>
-      </c>
       <c r="M59" t="s">
-        <v>25</v>
-      </c>
-      <c r="N59" s="1">
+        <v>24</v>
+      </c>
+      <c r="N59" t="s">
+        <v>25</v>
+      </c>
+      <c r="O59" s="1">
         <v>42094</v>
       </c>
-      <c r="O59" t="s">
-        <v>26</v>
-      </c>
       <c r="P59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q59" t="s">
-        <v>28</v>
-      </c>
-      <c r="R59">
+        <v>27</v>
+      </c>
+      <c r="R59" t="s">
+        <v>28</v>
+      </c>
+      <c r="S59">
         <v>1308382</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>42098</v>
       </c>
@@ -4232,44 +4278,47 @@
       <c r="D60" t="s">
         <v>84</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" t="s">
+        <v>302</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>50</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>183</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>52</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>208</v>
       </c>
-      <c r="L60" t="s">
-        <v>24</v>
-      </c>
       <c r="M60" t="s">
-        <v>25</v>
-      </c>
-      <c r="N60" s="1">
+        <v>24</v>
+      </c>
+      <c r="N60" t="s">
+        <v>25</v>
+      </c>
+      <c r="O60" s="1">
         <v>42098</v>
       </c>
-      <c r="O60" t="s">
+      <c r="P60" t="s">
         <v>38</v>
       </c>
-      <c r="P60" t="s">
-        <v>27</v>
-      </c>
       <c r="Q60" t="s">
         <v>27</v>
       </c>
-      <c r="R60">
+      <c r="R60" t="s">
+        <v>27</v>
+      </c>
+      <c r="S60">
         <v>1314442</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>42098</v>
       </c>
@@ -4279,47 +4328,47 @@
       <c r="D61" t="s">
         <v>75</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>50</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>210</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>211</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>212</v>
       </c>
-      <c r="K61" t="s">
+      <c r="L61" t="s">
         <v>47</v>
       </c>
-      <c r="L61" t="s">
-        <v>24</v>
-      </c>
       <c r="M61" t="s">
-        <v>25</v>
-      </c>
-      <c r="N61" s="1">
+        <v>24</v>
+      </c>
+      <c r="N61" t="s">
+        <v>25</v>
+      </c>
+      <c r="O61" s="1">
         <v>42098</v>
       </c>
-      <c r="O61" t="s">
-        <v>26</v>
-      </c>
       <c r="P61" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q61" t="s">
-        <v>28</v>
-      </c>
-      <c r="R61">
+        <v>27</v>
+      </c>
+      <c r="R61" t="s">
+        <v>28</v>
+      </c>
+      <c r="S61">
         <v>1315981</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>42099</v>
       </c>
@@ -4329,44 +4378,47 @@
       <c r="D62" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" t="s">
+        <v>302</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>50</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>183</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>140</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>214</v>
       </c>
-      <c r="L62" t="s">
-        <v>24</v>
-      </c>
       <c r="M62" t="s">
-        <v>25</v>
-      </c>
-      <c r="N62" s="1">
+        <v>24</v>
+      </c>
+      <c r="N62" t="s">
+        <v>25</v>
+      </c>
+      <c r="O62" s="1">
         <v>42099</v>
       </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>38</v>
       </c>
-      <c r="P62" t="s">
-        <v>27</v>
-      </c>
       <c r="Q62" t="s">
-        <v>28</v>
-      </c>
-      <c r="R62">
+        <v>27</v>
+      </c>
+      <c r="R62" t="s">
+        <v>28</v>
+      </c>
+      <c r="S62">
         <v>1316084</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>42103</v>
       </c>
@@ -4376,41 +4428,41 @@
       <c r="D63" t="s">
         <v>43</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>64</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>57</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>216</v>
       </c>
-      <c r="L63" t="s">
-        <v>24</v>
-      </c>
       <c r="M63" t="s">
-        <v>25</v>
-      </c>
-      <c r="N63" s="1">
+        <v>24</v>
+      </c>
+      <c r="N63" t="s">
+        <v>25</v>
+      </c>
+      <c r="O63" s="1">
         <v>42103</v>
       </c>
-      <c r="O63" t="s">
-        <v>26</v>
-      </c>
       <c r="P63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q63" t="s">
         <v>27</v>
       </c>
-      <c r="R63">
+      <c r="R63" t="s">
+        <v>27</v>
+      </c>
+      <c r="S63">
         <v>1322347</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>42098</v>
       </c>
@@ -4420,41 +4472,41 @@
       <c r="D64" t="s">
         <v>19</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>21</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>218</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>219</v>
       </c>
-      <c r="L64" t="s">
-        <v>24</v>
-      </c>
       <c r="M64" t="s">
-        <v>25</v>
-      </c>
-      <c r="N64" s="1">
+        <v>24</v>
+      </c>
+      <c r="N64" t="s">
+        <v>25</v>
+      </c>
+      <c r="O64" s="1">
         <v>42098</v>
       </c>
-      <c r="O64" t="s">
-        <v>26</v>
-      </c>
       <c r="P64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q64" t="s">
-        <v>28</v>
-      </c>
-      <c r="R64">
+        <v>27</v>
+      </c>
+      <c r="R64" t="s">
+        <v>28</v>
+      </c>
+      <c r="S64">
         <v>1314400</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>42098</v>
       </c>
@@ -4464,41 +4516,41 @@
       <c r="D65" t="s">
         <v>67</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>21</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>36</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>221</v>
       </c>
-      <c r="L65" t="s">
-        <v>24</v>
-      </c>
       <c r="M65" t="s">
-        <v>25</v>
-      </c>
-      <c r="N65" s="1">
+        <v>24</v>
+      </c>
+      <c r="N65" t="s">
+        <v>25</v>
+      </c>
+      <c r="O65" s="1">
         <v>42098</v>
       </c>
-      <c r="O65" t="s">
-        <v>26</v>
-      </c>
       <c r="P65" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q65" t="s">
-        <v>28</v>
-      </c>
-      <c r="R65">
+        <v>27</v>
+      </c>
+      <c r="R65" t="s">
+        <v>28</v>
+      </c>
+      <c r="S65">
         <v>1316041</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>42098</v>
       </c>
@@ -4508,41 +4560,41 @@
       <c r="D66" t="s">
         <v>43</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>91</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>73</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>223</v>
       </c>
-      <c r="L66" t="s">
-        <v>24</v>
-      </c>
       <c r="M66" t="s">
-        <v>25</v>
-      </c>
-      <c r="N66" s="1">
+        <v>24</v>
+      </c>
+      <c r="N66" t="s">
+        <v>25</v>
+      </c>
+      <c r="O66" s="1">
         <v>42098</v>
       </c>
-      <c r="O66" t="s">
-        <v>26</v>
-      </c>
       <c r="P66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q66" t="s">
-        <v>28</v>
-      </c>
-      <c r="R66">
+        <v>27</v>
+      </c>
+      <c r="R66" t="s">
+        <v>28</v>
+      </c>
+      <c r="S66">
         <v>1316049</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>42099</v>
       </c>
@@ -4552,44 +4604,44 @@
       <c r="D67" t="s">
         <v>67</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>50</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>225</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>132</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>226</v>
       </c>
-      <c r="L67" t="s">
-        <v>24</v>
-      </c>
       <c r="M67" t="s">
-        <v>25</v>
-      </c>
-      <c r="N67" s="1">
+        <v>24</v>
+      </c>
+      <c r="N67" t="s">
+        <v>25</v>
+      </c>
+      <c r="O67" s="1">
         <v>42099</v>
       </c>
-      <c r="O67" t="s">
-        <v>26</v>
-      </c>
       <c r="P67" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q67" t="s">
         <v>27</v>
       </c>
-      <c r="R67">
+      <c r="R67" t="s">
+        <v>27</v>
+      </c>
+      <c r="S67">
         <v>1316181</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>42099</v>
       </c>
@@ -4599,44 +4651,44 @@
       <c r="D68" t="s">
         <v>67</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>21</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>190</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>228</v>
       </c>
-      <c r="K68" t="s">
+      <c r="L68" t="s">
         <v>126</v>
       </c>
-      <c r="L68" t="s">
-        <v>24</v>
-      </c>
       <c r="M68" t="s">
-        <v>25</v>
-      </c>
-      <c r="N68" s="1">
+        <v>24</v>
+      </c>
+      <c r="N68" t="s">
+        <v>25</v>
+      </c>
+      <c r="O68" s="1">
         <v>42099</v>
       </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>42</v>
       </c>
-      <c r="P68" t="s">
-        <v>27</v>
-      </c>
       <c r="Q68" t="s">
         <v>27</v>
       </c>
-      <c r="R68">
+      <c r="R68" t="s">
+        <v>27</v>
+      </c>
+      <c r="S68">
         <v>1316097</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>42100</v>
       </c>
@@ -4646,44 +4698,44 @@
       <c r="D69" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>50</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>56</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>211</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>230</v>
       </c>
-      <c r="L69" t="s">
-        <v>24</v>
-      </c>
       <c r="M69" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="1">
+        <v>24</v>
+      </c>
+      <c r="N69" t="s">
+        <v>25</v>
+      </c>
+      <c r="O69" s="1">
         <v>42100</v>
       </c>
-      <c r="O69" t="s">
-        <v>26</v>
-      </c>
       <c r="P69" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q69" t="s">
-        <v>28</v>
-      </c>
-      <c r="R69">
+        <v>27</v>
+      </c>
+      <c r="R69" t="s">
+        <v>28</v>
+      </c>
+      <c r="S69">
         <v>1316645</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>42100</v>
       </c>
@@ -4693,44 +4745,44 @@
       <c r="D70" t="s">
         <v>54</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>232</v>
       </c>
-      <c r="I70" t="s">
+      <c r="J70" t="s">
         <v>57</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>233</v>
       </c>
-      <c r="K70" t="s">
+      <c r="L70" t="s">
         <v>126</v>
       </c>
-      <c r="L70" t="s">
-        <v>24</v>
-      </c>
       <c r="M70" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="1">
+        <v>24</v>
+      </c>
+      <c r="N70" t="s">
+        <v>25</v>
+      </c>
+      <c r="O70" s="1">
         <v>42103</v>
       </c>
-      <c r="O70" t="s">
-        <v>26</v>
-      </c>
       <c r="P70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q70" t="s">
-        <v>28</v>
-      </c>
-      <c r="R70">
+        <v>27</v>
+      </c>
+      <c r="R70" t="s">
+        <v>28</v>
+      </c>
+      <c r="S70">
         <v>1316762</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>42103</v>
       </c>
@@ -4740,41 +4792,41 @@
       <c r="D71" t="s">
         <v>186</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>117</v>
       </c>
-      <c r="I71" t="s">
+      <c r="J71" t="s">
         <v>111</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>235</v>
       </c>
-      <c r="L71" t="s">
-        <v>24</v>
-      </c>
       <c r="M71" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" s="1">
+        <v>24</v>
+      </c>
+      <c r="N71" t="s">
+        <v>25</v>
+      </c>
+      <c r="O71" s="1">
         <v>42103</v>
       </c>
-      <c r="O71" t="s">
-        <v>26</v>
-      </c>
       <c r="P71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q71" t="s">
         <v>27</v>
       </c>
-      <c r="R71">
+      <c r="R71" t="s">
+        <v>27</v>
+      </c>
+      <c r="S71">
         <v>1322585</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>42094</v>
       </c>
@@ -4784,41 +4836,41 @@
       <c r="D72" t="s">
         <v>75</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>117</v>
       </c>
-      <c r="I72" t="s">
+      <c r="J72" t="s">
         <v>111</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>237</v>
       </c>
-      <c r="L72" t="s">
-        <v>24</v>
-      </c>
       <c r="M72" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="1">
+        <v>24</v>
+      </c>
+      <c r="N72" t="s">
+        <v>25</v>
+      </c>
+      <c r="O72" s="1">
         <v>42094</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>38</v>
       </c>
-      <c r="P72" t="s">
-        <v>27</v>
-      </c>
       <c r="Q72" t="s">
-        <v>28</v>
-      </c>
-      <c r="R72">
+        <v>27</v>
+      </c>
+      <c r="R72" t="s">
+        <v>28</v>
+      </c>
+      <c r="S72">
         <v>1307929</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>42103</v>
       </c>
@@ -4828,41 +4880,41 @@
       <c r="D73" t="s">
         <v>43</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>239</v>
       </c>
-      <c r="I73" t="s">
+      <c r="J73" t="s">
         <v>45</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>240</v>
       </c>
-      <c r="L73" t="s">
-        <v>24</v>
-      </c>
       <c r="M73" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="1">
+        <v>24</v>
+      </c>
+      <c r="N73" t="s">
+        <v>25</v>
+      </c>
+      <c r="O73" s="1">
         <v>42103</v>
       </c>
-      <c r="O73" t="s">
-        <v>26</v>
-      </c>
       <c r="P73" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q73" t="s">
         <v>27</v>
       </c>
-      <c r="R73">
+      <c r="R73" t="s">
+        <v>27</v>
+      </c>
+      <c r="S73">
         <v>1324011</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>42089</v>
       </c>
@@ -4872,41 +4924,41 @@
       <c r="D74" t="s">
         <v>67</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>21</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>242</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>243</v>
       </c>
-      <c r="L74" t="s">
-        <v>24</v>
-      </c>
       <c r="M74" t="s">
-        <v>25</v>
-      </c>
-      <c r="N74" s="1">
+        <v>24</v>
+      </c>
+      <c r="N74" t="s">
+        <v>25</v>
+      </c>
+      <c r="O74" s="1">
         <v>42089</v>
       </c>
-      <c r="O74" t="s">
-        <v>26</v>
-      </c>
       <c r="P74" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q74" t="s">
         <v>27</v>
       </c>
-      <c r="R74">
+      <c r="R74" t="s">
+        <v>27</v>
+      </c>
+      <c r="S74">
         <v>1301660</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>42083</v>
       </c>
@@ -4916,41 +4968,41 @@
       <c r="D75" t="s">
         <v>67</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>35</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>245</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>246</v>
       </c>
-      <c r="L75" t="s">
-        <v>24</v>
-      </c>
       <c r="M75" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="1">
+        <v>24</v>
+      </c>
+      <c r="N75" t="s">
+        <v>25</v>
+      </c>
+      <c r="O75" s="1">
         <v>42083</v>
       </c>
-      <c r="O75" t="s">
-        <v>26</v>
-      </c>
       <c r="P75" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q75" t="s">
-        <v>28</v>
-      </c>
-      <c r="R75">
+        <v>27</v>
+      </c>
+      <c r="R75" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75">
         <v>1294108</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="300" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>42089</v>
       </c>
@@ -4960,44 +5012,44 @@
       <c r="D76" t="s">
         <v>19</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>50</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>77</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>146</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>248</v>
       </c>
-      <c r="L76" t="s">
-        <v>24</v>
-      </c>
       <c r="M76" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="1">
+        <v>24</v>
+      </c>
+      <c r="N76" t="s">
+        <v>25</v>
+      </c>
+      <c r="O76" s="1">
         <v>42089</v>
       </c>
-      <c r="O76" t="s">
-        <v>26</v>
-      </c>
       <c r="P76" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q76" t="s">
         <v>27</v>
       </c>
-      <c r="R76">
+      <c r="R76" t="s">
+        <v>27</v>
+      </c>
+      <c r="S76">
         <v>1302268</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="285" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>42084</v>
       </c>
@@ -5007,41 +5059,41 @@
       <c r="D77" t="s">
         <v>54</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="G77" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>250</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>190</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>251</v>
       </c>
-      <c r="L77" t="s">
-        <v>24</v>
-      </c>
       <c r="M77" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="1">
+        <v>24</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77" s="1">
         <v>42084</v>
       </c>
-      <c r="O77" t="s">
-        <v>26</v>
-      </c>
       <c r="P77" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q77" t="s">
-        <v>28</v>
-      </c>
-      <c r="R77">
+        <v>27</v>
+      </c>
+      <c r="R77" t="s">
+        <v>28</v>
+      </c>
+      <c r="S77">
         <v>1294465</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>42084</v>
       </c>
@@ -5051,44 +5103,44 @@
       <c r="D78" t="s">
         <v>252</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>50</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>56</v>
       </c>
-      <c r="I78" t="s">
+      <c r="J78" t="s">
         <v>211</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>212</v>
       </c>
-      <c r="L78" t="s">
-        <v>24</v>
-      </c>
       <c r="M78" t="s">
-        <v>25</v>
-      </c>
-      <c r="N78" s="1">
+        <v>24</v>
+      </c>
+      <c r="N78" t="s">
+        <v>25</v>
+      </c>
+      <c r="O78" s="1">
         <v>42084</v>
       </c>
-      <c r="O78" t="s">
-        <v>26</v>
-      </c>
       <c r="P78" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q78" t="s">
-        <v>28</v>
-      </c>
-      <c r="R78">
+        <v>27</v>
+      </c>
+      <c r="R78" t="s">
+        <v>28</v>
+      </c>
+      <c r="S78">
         <v>1294635</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>42089</v>
       </c>
@@ -5098,44 +5150,44 @@
       <c r="D79" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>77</v>
       </c>
-      <c r="I79" t="s">
+      <c r="J79" t="s">
         <v>197</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>255</v>
       </c>
-      <c r="K79" t="s">
+      <c r="L79" t="s">
         <v>126</v>
       </c>
-      <c r="L79" t="s">
-        <v>24</v>
-      </c>
       <c r="M79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" s="1">
+        <v>24</v>
+      </c>
+      <c r="N79" t="s">
+        <v>25</v>
+      </c>
+      <c r="O79" s="1">
         <v>42089</v>
       </c>
-      <c r="O79" t="s">
-        <v>26</v>
-      </c>
       <c r="P79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q79" t="s">
-        <v>28</v>
-      </c>
-      <c r="R79">
+        <v>27</v>
+      </c>
+      <c r="R79" t="s">
+        <v>28</v>
+      </c>
+      <c r="S79">
         <v>1302341</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>42084</v>
       </c>
@@ -5145,44 +5197,44 @@
       <c r="D80" t="s">
         <v>256</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>50</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>56</v>
       </c>
-      <c r="I80" t="s">
+      <c r="J80" t="s">
         <v>60</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>181</v>
       </c>
-      <c r="L80" t="s">
-        <v>24</v>
-      </c>
       <c r="M80" t="s">
-        <v>25</v>
-      </c>
-      <c r="N80" s="1">
+        <v>24</v>
+      </c>
+      <c r="N80" t="s">
+        <v>25</v>
+      </c>
+      <c r="O80" s="1">
         <v>42084</v>
       </c>
-      <c r="O80" t="s">
-        <v>26</v>
-      </c>
       <c r="P80" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q80" t="s">
-        <v>28</v>
-      </c>
-      <c r="R80">
+        <v>27</v>
+      </c>
+      <c r="R80" t="s">
+        <v>28</v>
+      </c>
+      <c r="S80">
         <v>1294495</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>42095</v>
       </c>
@@ -5192,47 +5244,47 @@
       <c r="D81" t="s">
         <v>43</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>50</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>51</v>
       </c>
-      <c r="I81" t="s">
+      <c r="J81" t="s">
         <v>57</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>259</v>
       </c>
-      <c r="K81" t="s">
+      <c r="L81" t="s">
         <v>126</v>
       </c>
-      <c r="L81" t="s">
-        <v>24</v>
-      </c>
       <c r="M81" t="s">
-        <v>25</v>
-      </c>
-      <c r="N81" s="1">
+        <v>24</v>
+      </c>
+      <c r="N81" t="s">
+        <v>25</v>
+      </c>
+      <c r="O81" s="1">
         <v>42111</v>
       </c>
-      <c r="O81" t="s">
-        <v>26</v>
-      </c>
       <c r="P81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q81" t="s">
-        <v>28</v>
-      </c>
-      <c r="R81">
+        <v>27</v>
+      </c>
+      <c r="R81" t="s">
+        <v>28</v>
+      </c>
+      <c r="S81">
         <v>1310363</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>42085</v>
       </c>
@@ -5242,44 +5294,44 @@
       <c r="D82" t="s">
         <v>43</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>50</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>77</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>140</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>261</v>
       </c>
-      <c r="L82" t="s">
-        <v>24</v>
-      </c>
       <c r="M82" t="s">
-        <v>25</v>
-      </c>
-      <c r="N82" s="1">
+        <v>24</v>
+      </c>
+      <c r="N82" t="s">
+        <v>25</v>
+      </c>
+      <c r="O82" s="1">
         <v>42085</v>
       </c>
-      <c r="O82" t="s">
-        <v>26</v>
-      </c>
       <c r="P82" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q82" t="s">
         <v>27</v>
       </c>
-      <c r="R82">
+      <c r="R82" t="s">
+        <v>27</v>
+      </c>
+      <c r="S82">
         <v>1294839</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="375" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>42089</v>
       </c>
@@ -5289,44 +5341,44 @@
       <c r="D83" t="s">
         <v>69</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>71</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>96</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>57</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>263</v>
       </c>
-      <c r="L83" t="s">
-        <v>24</v>
-      </c>
       <c r="M83" t="s">
-        <v>25</v>
-      </c>
-      <c r="N83" s="1">
+        <v>24</v>
+      </c>
+      <c r="N83" t="s">
+        <v>25</v>
+      </c>
+      <c r="O83" s="1">
         <v>42095</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>38</v>
       </c>
-      <c r="P83" t="s">
-        <v>27</v>
-      </c>
       <c r="Q83" t="s">
         <v>27</v>
       </c>
-      <c r="R83">
+      <c r="R83" t="s">
+        <v>27</v>
+      </c>
+      <c r="S83">
         <v>1302463</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>42085</v>
       </c>
@@ -5336,41 +5388,41 @@
       <c r="D84" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>117</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>100</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>101</v>
       </c>
-      <c r="L84" t="s">
-        <v>24</v>
-      </c>
       <c r="M84" t="s">
-        <v>25</v>
-      </c>
-      <c r="N84" s="1">
+        <v>24</v>
+      </c>
+      <c r="N84" t="s">
+        <v>25</v>
+      </c>
+      <c r="O84" s="1">
         <v>42085</v>
       </c>
-      <c r="O84" t="s">
-        <v>26</v>
-      </c>
       <c r="P84" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q84" t="s">
-        <v>28</v>
-      </c>
-      <c r="R84">
+        <v>27</v>
+      </c>
+      <c r="R84" t="s">
+        <v>28</v>
+      </c>
+      <c r="S84">
         <v>1294904</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>42085</v>
       </c>
@@ -5380,44 +5432,44 @@
       <c r="D85" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>50</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>51</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>266</v>
       </c>
-      <c r="J85" t="s">
+      <c r="K85" t="s">
         <v>267</v>
       </c>
-      <c r="L85" t="s">
-        <v>24</v>
-      </c>
       <c r="M85" t="s">
-        <v>25</v>
-      </c>
-      <c r="N85" s="1">
+        <v>24</v>
+      </c>
+      <c r="N85" t="s">
+        <v>25</v>
+      </c>
+      <c r="O85" s="1">
         <v>42085</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>42</v>
       </c>
-      <c r="P85" t="s">
-        <v>27</v>
-      </c>
       <c r="Q85" t="s">
-        <v>28</v>
-      </c>
-      <c r="R85">
+        <v>27</v>
+      </c>
+      <c r="R85" t="s">
+        <v>28</v>
+      </c>
+      <c r="S85">
         <v>1294907</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>42085</v>
       </c>
@@ -5427,47 +5479,47 @@
       <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>50</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>225</v>
       </c>
-      <c r="I86" t="s">
+      <c r="J86" t="s">
         <v>118</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>269</v>
       </c>
-      <c r="K86" t="s">
+      <c r="L86" t="s">
         <v>126</v>
       </c>
-      <c r="L86" t="s">
-        <v>24</v>
-      </c>
       <c r="M86" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="1">
+        <v>24</v>
+      </c>
+      <c r="N86" t="s">
+        <v>25</v>
+      </c>
+      <c r="O86" s="1">
         <v>42085</v>
       </c>
-      <c r="O86" t="s">
-        <v>26</v>
-      </c>
       <c r="P86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q86" t="s">
-        <v>28</v>
-      </c>
-      <c r="R86">
+        <v>27</v>
+      </c>
+      <c r="R86" t="s">
+        <v>28</v>
+      </c>
+      <c r="S86">
         <v>1294950</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>42086</v>
       </c>
@@ -5477,41 +5529,41 @@
       <c r="D87" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>21</v>
       </c>
-      <c r="I87" t="s">
+      <c r="J87" t="s">
         <v>190</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>251</v>
       </c>
-      <c r="L87" t="s">
-        <v>24</v>
-      </c>
       <c r="M87" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" s="1">
+        <v>24</v>
+      </c>
+      <c r="N87" t="s">
+        <v>25</v>
+      </c>
+      <c r="O87" s="1">
         <v>42088</v>
       </c>
-      <c r="O87" t="s">
-        <v>26</v>
-      </c>
       <c r="P87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q87" t="s">
-        <v>28</v>
-      </c>
-      <c r="R87">
+        <v>27</v>
+      </c>
+      <c r="R87" t="s">
+        <v>28</v>
+      </c>
+      <c r="S87">
         <v>1295268</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>42095</v>
       </c>
@@ -5521,41 +5573,41 @@
       <c r="D88" t="s">
         <v>69</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>272</v>
       </c>
-      <c r="I88" t="s">
+      <c r="J88" t="s">
         <v>118</v>
       </c>
-      <c r="J88" t="s">
+      <c r="K88" t="s">
         <v>273</v>
       </c>
-      <c r="L88" t="s">
-        <v>24</v>
-      </c>
       <c r="M88" t="s">
-        <v>25</v>
-      </c>
-      <c r="N88" s="1">
+        <v>24</v>
+      </c>
+      <c r="N88" t="s">
+        <v>25</v>
+      </c>
+      <c r="O88" s="1">
         <v>42097</v>
       </c>
-      <c r="O88" t="s">
-        <v>26</v>
-      </c>
       <c r="P88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q88" t="s">
         <v>27</v>
       </c>
-      <c r="R88">
+      <c r="R88" t="s">
+        <v>27</v>
+      </c>
+      <c r="S88">
         <v>1310075</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>42086</v>
       </c>
@@ -5565,44 +5617,44 @@
       <c r="D89" t="s">
         <v>19</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>50</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>51</v>
       </c>
-      <c r="I89" t="s">
+      <c r="J89" t="s">
         <v>275</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>276</v>
       </c>
-      <c r="L89" t="s">
-        <v>24</v>
-      </c>
       <c r="M89" t="s">
-        <v>25</v>
-      </c>
-      <c r="N89" s="1">
+        <v>24</v>
+      </c>
+      <c r="N89" t="s">
+        <v>25</v>
+      </c>
+      <c r="O89" s="1">
         <v>42090</v>
       </c>
-      <c r="O89" t="s">
-        <v>26</v>
-      </c>
       <c r="P89" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q89" t="s">
         <v>27</v>
       </c>
-      <c r="R89">
+      <c r="R89" t="s">
+        <v>27</v>
+      </c>
+      <c r="S89">
         <v>1295294</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>42089</v>
       </c>
@@ -5612,44 +5664,44 @@
       <c r="D90" t="s">
         <v>48</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>50</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>51</v>
       </c>
-      <c r="I90" t="s">
+      <c r="J90" t="s">
         <v>65</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>278</v>
       </c>
-      <c r="L90" t="s">
-        <v>24</v>
-      </c>
       <c r="M90" t="s">
-        <v>25</v>
-      </c>
-      <c r="N90" s="1">
+        <v>24</v>
+      </c>
+      <c r="N90" t="s">
+        <v>25</v>
+      </c>
+      <c r="O90" s="1">
         <v>42089</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>42</v>
       </c>
-      <c r="P90" t="s">
-        <v>27</v>
-      </c>
       <c r="Q90" t="s">
         <v>27</v>
       </c>
-      <c r="R90">
+      <c r="R90" t="s">
+        <v>27</v>
+      </c>
+      <c r="S90">
         <v>1302606</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42086</v>
       </c>
@@ -5659,44 +5711,44 @@
       <c r="D91" t="s">
         <v>39</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="G91" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>50</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>77</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>280</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>281</v>
       </c>
-      <c r="L91" t="s">
-        <v>24</v>
-      </c>
       <c r="M91" t="s">
-        <v>25</v>
-      </c>
-      <c r="N91" s="1">
+        <v>24</v>
+      </c>
+      <c r="N91" t="s">
+        <v>25</v>
+      </c>
+      <c r="O91" s="1">
         <v>42086</v>
       </c>
-      <c r="O91" t="s">
-        <v>26</v>
-      </c>
       <c r="P91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q91" t="s">
-        <v>28</v>
-      </c>
-      <c r="R91">
+        <v>27</v>
+      </c>
+      <c r="R91" t="s">
+        <v>28</v>
+      </c>
+      <c r="S91">
         <v>1295343</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>42086</v>
       </c>
@@ -5706,41 +5758,41 @@
       <c r="D92" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>283</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>284</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>285</v>
       </c>
-      <c r="L92" t="s">
-        <v>24</v>
-      </c>
       <c r="M92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" s="1">
+        <v>24</v>
+      </c>
+      <c r="N92" t="s">
+        <v>25</v>
+      </c>
+      <c r="O92" s="1">
         <v>42088</v>
       </c>
-      <c r="O92" t="s">
-        <v>26</v>
-      </c>
       <c r="P92" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q92" t="s">
-        <v>28</v>
-      </c>
-      <c r="R92">
+        <v>27</v>
+      </c>
+      <c r="R92" t="s">
+        <v>28</v>
+      </c>
+      <c r="S92">
         <v>1295559</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>42095</v>
       </c>
@@ -5750,41 +5802,44 @@
       <c r="D93" t="s">
         <v>84</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="E93" t="s">
+        <v>302</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>64</v>
       </c>
-      <c r="I93" t="s">
+      <c r="J93" t="s">
         <v>36</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>287</v>
       </c>
-      <c r="L93" t="s">
-        <v>24</v>
-      </c>
       <c r="M93" t="s">
-        <v>25</v>
-      </c>
-      <c r="N93" s="1">
+        <v>24</v>
+      </c>
+      <c r="N93" t="s">
+        <v>25</v>
+      </c>
+      <c r="O93" s="1">
         <v>42095</v>
       </c>
-      <c r="O93" t="s">
+      <c r="P93" t="s">
         <v>38</v>
       </c>
-      <c r="P93" t="s">
-        <v>27</v>
-      </c>
       <c r="Q93" t="s">
         <v>27</v>
       </c>
-      <c r="R93">
+      <c r="R93" t="s">
+        <v>27</v>
+      </c>
+      <c r="S93">
         <v>1311058</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>42086</v>
       </c>
@@ -5794,44 +5849,44 @@
       <c r="D94" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>117</v>
       </c>
-      <c r="I94" t="s">
+      <c r="J94" t="s">
         <v>104</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>289</v>
       </c>
-      <c r="K94" t="s">
+      <c r="L94" t="s">
         <v>126</v>
       </c>
-      <c r="L94" t="s">
-        <v>24</v>
-      </c>
       <c r="M94" t="s">
-        <v>25</v>
-      </c>
-      <c r="N94" s="1">
+        <v>24</v>
+      </c>
+      <c r="N94" t="s">
+        <v>25</v>
+      </c>
+      <c r="O94" s="1">
         <v>42086</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>42</v>
       </c>
-      <c r="P94" t="s">
-        <v>27</v>
-      </c>
       <c r="Q94" t="s">
-        <v>28</v>
-      </c>
-      <c r="R94">
+        <v>27</v>
+      </c>
+      <c r="R94" t="s">
+        <v>28</v>
+      </c>
+      <c r="S94">
         <v>1296046</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="405" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>42104</v>
       </c>
@@ -5841,41 +5896,41 @@
       <c r="D95" t="s">
         <v>19</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>64</v>
       </c>
-      <c r="I95" t="s">
+      <c r="J95" t="s">
         <v>118</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>119</v>
       </c>
-      <c r="L95" t="s">
-        <v>24</v>
-      </c>
       <c r="M95" t="s">
-        <v>25</v>
-      </c>
-      <c r="N95" s="1">
+        <v>24</v>
+      </c>
+      <c r="N95" t="s">
+        <v>25</v>
+      </c>
+      <c r="O95" s="1">
         <v>42107</v>
       </c>
-      <c r="O95" t="s">
-        <v>26</v>
-      </c>
       <c r="P95" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q95" t="s">
         <v>27</v>
       </c>
-      <c r="R95">
+      <c r="R95" t="s">
+        <v>27</v>
+      </c>
+      <c r="S95">
         <v>1324659</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>42086</v>
       </c>
@@ -5885,41 +5940,41 @@
       <c r="D96" t="s">
         <v>29</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>250</v>
       </c>
-      <c r="I96" t="s">
+      <c r="J96" t="s">
         <v>22</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>292</v>
       </c>
-      <c r="L96" t="s">
-        <v>24</v>
-      </c>
       <c r="M96" t="s">
-        <v>25</v>
-      </c>
-      <c r="N96" s="1">
+        <v>24</v>
+      </c>
+      <c r="N96" t="s">
+        <v>25</v>
+      </c>
+      <c r="O96" s="1">
         <v>42090</v>
       </c>
-      <c r="O96" t="s">
-        <v>26</v>
-      </c>
       <c r="P96" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q96" t="s">
-        <v>28</v>
-      </c>
-      <c r="R96">
+        <v>27</v>
+      </c>
+      <c r="R96" t="s">
+        <v>28</v>
+      </c>
+      <c r="S96">
         <v>1296346</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>42095</v>
       </c>
@@ -5929,44 +5984,44 @@
       <c r="D97" t="s">
         <v>293</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>71</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>295</v>
       </c>
-      <c r="I97" t="s">
+      <c r="J97" t="s">
         <v>57</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>296</v>
       </c>
-      <c r="L97" t="s">
-        <v>24</v>
-      </c>
       <c r="M97" t="s">
-        <v>25</v>
-      </c>
-      <c r="N97" s="1">
+        <v>24</v>
+      </c>
+      <c r="N97" t="s">
+        <v>25</v>
+      </c>
+      <c r="O97" s="1">
         <v>42100</v>
       </c>
-      <c r="O97" t="s">
-        <v>26</v>
-      </c>
       <c r="P97" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q97" t="s">
-        <v>28</v>
-      </c>
-      <c r="R97">
+        <v>27</v>
+      </c>
+      <c r="R97" t="s">
+        <v>28</v>
+      </c>
+      <c r="S97">
         <v>1311452</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>42104</v>
       </c>
@@ -5976,41 +6031,41 @@
       <c r="D98" t="s">
         <v>39</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>91</v>
       </c>
-      <c r="I98" t="s">
+      <c r="J98" t="s">
         <v>298</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>299</v>
       </c>
-      <c r="L98" t="s">
-        <v>24</v>
-      </c>
       <c r="M98" t="s">
-        <v>25</v>
-      </c>
-      <c r="N98" s="1">
+        <v>24</v>
+      </c>
+      <c r="N98" t="s">
+        <v>25</v>
+      </c>
+      <c r="O98" s="1">
         <v>42108</v>
       </c>
-      <c r="O98" t="s">
-        <v>26</v>
-      </c>
       <c r="P98" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q98" t="s">
-        <v>28</v>
-      </c>
-      <c r="R98">
+        <v>27</v>
+      </c>
+      <c r="R98" t="s">
+        <v>28</v>
+      </c>
+      <c r="S98">
         <v>1324805</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>42104</v>
       </c>
@@ -6020,41 +6075,41 @@
       <c r="D99" t="s">
         <v>62</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>64</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>73</v>
       </c>
-      <c r="J99" t="s">
+      <c r="K99" t="s">
         <v>74</v>
       </c>
-      <c r="L99" t="s">
-        <v>24</v>
-      </c>
       <c r="M99" t="s">
-        <v>25</v>
-      </c>
-      <c r="N99" s="1">
+        <v>24</v>
+      </c>
+      <c r="N99" t="s">
+        <v>25</v>
+      </c>
+      <c r="O99" s="1">
         <v>42104</v>
       </c>
-      <c r="O99" t="s">
+      <c r="P99" t="s">
         <v>42</v>
       </c>
-      <c r="P99" t="s">
-        <v>27</v>
-      </c>
       <c r="Q99" t="s">
         <v>27</v>
       </c>
-      <c r="R99">
+      <c r="R99" t="s">
+        <v>27</v>
+      </c>
+      <c r="S99">
         <v>1324826</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>42104</v>
       </c>
@@ -6064,41 +6119,48 @@
       <c r="D100" t="s">
         <v>39</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>21</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>190</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>191</v>
       </c>
-      <c r="L100" t="s">
-        <v>24</v>
-      </c>
       <c r="M100" t="s">
-        <v>25</v>
-      </c>
-      <c r="N100" s="1">
+        <v>24</v>
+      </c>
+      <c r="N100" t="s">
+        <v>25</v>
+      </c>
+      <c r="O100" s="1">
         <v>42108</v>
       </c>
-      <c r="O100" t="s">
+      <c r="P100" t="s">
         <v>42</v>
       </c>
-      <c r="P100" t="s">
-        <v>27</v>
-      </c>
       <c r="Q100" t="s">
-        <v>28</v>
-      </c>
-      <c r="R100">
+        <v>27</v>
+      </c>
+      <c r="R100" t="s">
+        <v>28</v>
+      </c>
+      <c r="S100">
         <v>1324873</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S100">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Advertising and marketing"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
